--- a/biology/Botanique/Lady_Waterlow/Lady_Waterlow.xlsx
+++ b/biology/Botanique/Lady_Waterlow/Lady_Waterlow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Lady Waterlow' est un cultivar de rosier grimpant obtenu en 1902 par la maison Nabonnand dans sa pépinière de Golfe-Juan et commercialisé par Clément et Paul Nabonnand[1]. Il doit son nom à Lady Waterlow, née Margaret Hamilton (1849-1931), d'origine californienne et seconde épouse (1882) du maire de Londres, Sir Sydney Waterlow[2]; elle possédait une propriété sur la Côte d'Azur[3]. Ce rosier, qui fut un grand succès à l'origine (le Journal des roses le qualifie de « grimpant idéal » en 1912[4]), est toujours prisé des amateurs, surtout dans le Midi de la France, en Italie et en Angleterre.
+'Lady Waterlow' est un cultivar de rosier grimpant obtenu en 1902 par la maison Nabonnand dans sa pépinière de Golfe-Juan et commercialisé par Clément et Paul Nabonnand. Il doit son nom à Lady Waterlow, née Margaret Hamilton (1849-1931), d'origine californienne et seconde épouse (1882) du maire de Londres, Sir Sydney Waterlow; elle possédait une propriété sur la Côte d'Azur. Ce rosier, qui fut un grand succès à l'origine (le Journal des roses le qualifie de « grimpant idéal » en 1912), est toujours prisé des amateurs, surtout dans le Midi de la France, en Italie et en Angleterre.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cultivar est apprécié pour le coloris de ses fleurs: rose saumonné avec des nuances très pâles et bordé de carmin[5]. Elles sont grandes et semi-doubles à doubles. La floraison est remontante dès la mi-mai dans le Midi, jusqu'aux premières gelées. Son buisson sarmenteux est vigoureux et résistant aux maladies du rosier; il peut s'élever jusqu'à plus de 500 cm si le climat est suffisamment doux. Ses feuilles sont allongées, pointues et extraordinairement longues. 
-Il tolère des températures hivernales de l'ordre de -20°[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cultivar est apprécié pour le coloris de ses fleurs: rose saumonné avec des nuances très pâles et bordé de carmin. Elles sont grandes et semi-doubles à doubles. La floraison est remontante dès la mi-mai dans le Midi, jusqu'aux premières gelées. Son buisson sarmenteux est vigoureux et résistant aux maladies du rosier; il peut s'élever jusqu'à plus de 500 cm si le climat est suffisamment doux. Ses feuilles sont allongées, pointues et extraordinairement longues. 
+Il tolère des températures hivernales de l'ordre de -20°.
 On peut l'admirer notamment à la roseraie du château du Mesnil-Geoffroy, à la roseraie du Val-de-Marne à L'Haÿ-les-Roses et à l'Europa-Rosarium de Sangerhausen. Il est très apprécié sous le climat méditerranéen, notamment sur la Côte d'Azur. C'est un grimpant idéal pour un haut mur ou une grande arche.
-'Lady Waterlow' est issu du croisement 'La France de 89' (Moreau &amp; Robert, 1889) × 'Madame Marie Lavalley' (Nabonnand, 1881)[7].
+'Lady Waterlow' est issu du croisement 'La France de 89' (Moreau &amp; Robert, 1889) × 'Madame Marie Lavalley' (Nabonnand, 1881).
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Par croisement avec Rosa gigantea, il a donné naissance au grimpant 'Emmanuella de Mouchy' (Clément Nabonnand, 1922).
 </t>
